--- a/outputs_HGR/o__Actinomycetales.xlsx
+++ b/outputs_HGR/o__Actinomycetales.xlsx
@@ -493,25 +493,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.565553318397926e-14</v>
+        <v>0.1276841579095868</v>
       </c>
       <c r="C2" t="n">
-        <v>8.565553318397926e-14</v>
+        <v>1.09282312568614e-13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4479711340733202</v>
+        <v>0.4835252283202834</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2697629601014254</v>
+        <v>1.092823125686142e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2822659058249976</v>
+        <v>0.3887906137698021</v>
       </c>
       <c r="G2" t="n">
-        <v>8.565553318397939e-14</v>
+        <v>1.092823125686142e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4479711340733202</v>
+        <v>0.4835252283202834</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -531,25 +531,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.06216357466381287</v>
       </c>
       <c r="C3" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>2.218420710677776e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.0002970209101478216</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4951555480197559</v>
+        <v>2.218420710677776e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.9375394044259727</v>
       </c>
       <c r="G3" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>2.218420710677776e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.9375394044259727</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>f__Propionibacteriaceae(reject)</t>
+          <t>f__Propionibacteriaceae</t>
         </is>
       </c>
     </row>
@@ -569,34 +569,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.565553318397926e-14</v>
+        <v>0.2676659684085429</v>
       </c>
       <c r="C4" t="n">
-        <v>8.565553318397926e-14</v>
+        <v>1.369658437341834e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4479711340733202</v>
+        <v>0.313992220977861</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2697629601014254</v>
+        <v>1.369658437341834e-13</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2822659058249976</v>
+        <v>0.4183418106131853</v>
       </c>
       <c r="G4" t="n">
-        <v>8.565553318397939e-14</v>
+        <v>1.369658437341834e-13</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4479711340733202</v>
+        <v>0.4183418106131853</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>f__Corynebacteriaceae</t>
+          <t>f__Propionibacteriaceae</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>f__Corynebacteriaceae(reject)</t>
+          <t>f__Propionibacteriaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -607,25 +607,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.3755287352438735</v>
       </c>
       <c r="C5" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>3.313133340061962e-12</v>
       </c>
       <c r="D5" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.1522067787674587</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4951555480197559</v>
+        <v>3.313133340061962e-12</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4722644859787284</v>
       </c>
       <c r="G5" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>3.313133340061959e-12</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4722644859787284</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -645,25 +645,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.0421979276412172</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.218546618525598e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.001357097074470873</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2.218546618525598e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.9564449752842453</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2.218546618525598e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.9564449752842453</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -683,25 +683,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.05674842440534371</v>
       </c>
       <c r="C7" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>2.218622182267122e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.0002359780999198099</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4951555480197559</v>
+        <v>2.218622182267122e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.9430155974946698</v>
       </c>
       <c r="G7" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>2.218622182267122e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.9430155974946698</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>f__Propionibacteriaceae(reject)</t>
+          <t>f__Propionibacteriaceae</t>
         </is>
       </c>
     </row>
@@ -721,25 +721,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.4199125356849732</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1478294255089193</v>
+        <v>1.918343027401301e-12</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.1155835666898013</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1478294255089194</v>
+        <v>1.918343027401301e-12</v>
       </c>
       <c r="F8" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4645038976194706</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1478294255089198</v>
+        <v>1.918343027401301e-12</v>
       </c>
       <c r="H8" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4645038976194706</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -759,25 +759,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.4190050126762962</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1478294255089193</v>
+        <v>1.446674821425505e-12</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.1155707553239562</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1478294255089194</v>
+        <v>1.446674821425506e-12</v>
       </c>
       <c r="F9" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4654242319954076</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1478294255089198</v>
+        <v>1.446674821425508e-12</v>
       </c>
       <c r="H9" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4654242319954076</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -797,25 +797,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>0.04634183880208743</v>
       </c>
       <c r="C10" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>2.218914624317272e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>0.0001812978038285381</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06056678042430738</v>
+        <v>2.218914624317272e-14</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9394332195756038</v>
+        <v>0.9534768633940176</v>
       </c>
       <c r="G10" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>2.218914624317272e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9394332195756038</v>
+        <v>0.9534768633940176</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -835,25 +835,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>0.03178635351379839</v>
       </c>
       <c r="C11" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>2.218992617538884e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>0.002036691546182057</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06056678042430738</v>
+        <v>2.218992617538884e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9394332195756038</v>
+        <v>0.9661769549399529</v>
       </c>
       <c r="G11" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>2.218992617538884e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9394332195756038</v>
+        <v>0.9661769549399529</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -873,25 +873,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.4205959958527057</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1478294255089193</v>
+        <v>2.24116190080818e-12</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.1141438610412962</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1478294255089194</v>
+        <v>2.241161900808179e-12</v>
       </c>
       <c r="F12" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4652601430992744</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1478294255089198</v>
+        <v>2.24116190080818e-12</v>
       </c>
       <c r="H12" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4652601430992744</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -911,25 +911,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.05033665509349988</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.218526572188032e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.0004033960884493515</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2.218526572188032e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0.9492599488179841</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.218526572188032e-14</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0.9492599488179841</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -949,25 +949,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.41083192849637</v>
       </c>
       <c r="C14" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>2.43093656310185e-12</v>
       </c>
       <c r="D14" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.1222012504813001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4951555480197559</v>
+        <v>2.430936563101851e-12</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4669668210150373</v>
       </c>
       <c r="G14" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>2.430936563101853e-12</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4669668210150373</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -987,25 +987,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>0.03438825431293801</v>
       </c>
       <c r="C15" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>2.219053963666154e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>0.000252684161160571</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06056678042430738</v>
+        <v>2.219053963666154e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9394332195756038</v>
+        <v>0.9653590615258348</v>
       </c>
       <c r="G15" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>2.219053963666154e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9394332195756038</v>
+        <v>0.9653590615258348</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1025,25 +1025,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.393164331034116</v>
       </c>
       <c r="C16" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>1.697422078404917e-12</v>
       </c>
       <c r="D16" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.1397774520619588</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4951555480197559</v>
+        <v>1.697422078404917e-12</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.467058216898833</v>
       </c>
       <c r="G16" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>1.697422078404919e-12</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.467058216898833</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1063,34 +1063,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.184051031492459e-12</v>
+        <v>0.2760543808272945</v>
       </c>
       <c r="C17" t="n">
-        <v>2.184051031492459e-12</v>
+        <v>1.229024014713106e-13</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5732074074485264</v>
+        <v>0.3183315846270228</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4267925925427373</v>
+        <v>1.229024014713106e-13</v>
       </c>
       <c r="F17" t="n">
-        <v>2.184051031492457e-12</v>
+        <v>0.405614034545314</v>
       </c>
       <c r="G17" t="n">
-        <v>2.184051031492455e-12</v>
+        <v>1.229024014713105e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5732074074485264</v>
+        <v>0.405614034545314</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>f__Corynebacteriaceae</t>
+          <t>f__Propionibacteriaceae</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>f__Corynebacteriaceae(reject)</t>
+          <t>f__Propionibacteriaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -1101,25 +1101,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.3961280310135146</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1478294255089193</v>
+        <v>1.453236608733492e-12</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.135553015698889</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1478294255089194</v>
+        <v>1.453236608733492e-12</v>
       </c>
       <c r="F18" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4683189532832366</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1478294255089198</v>
+        <v>1.453236608733493e-12</v>
       </c>
       <c r="H18" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4683189532832366</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1139,25 +1139,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>0.05302074317189284</v>
       </c>
       <c r="C19" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>2.218597110018079e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>0.0003093101252171962</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06056678042430738</v>
+        <v>2.218597110018079e-14</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9394332195756038</v>
+        <v>0.9466699467028235</v>
       </c>
       <c r="G19" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>2.218597110018079e-14</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9394332195756038</v>
+        <v>0.9466699467028235</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1177,25 +1177,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.0451136067648398</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2.218576453439002e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.0005858072570595586</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>2.218576453439002e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0.9543005859780341</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.218576453439002e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0.9543005859780341</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1215,25 +1215,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>0.04614915550642262</v>
       </c>
       <c r="C21" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>2.218589448392249e-14</v>
       </c>
       <c r="D21" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>0.0005228810012994961</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06056678042430738</v>
+        <v>2.218589448392249e-14</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9394332195756038</v>
+        <v>0.9533279634922113</v>
       </c>
       <c r="G21" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>2.218589448392249e-14</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9394332195756038</v>
+        <v>0.9533279634922113</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1253,25 +1253,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>0.04043280508894324</v>
       </c>
       <c r="C22" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>2.218713184153526e-14</v>
       </c>
       <c r="D22" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>0.0004960154681141342</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06056678042430738</v>
+        <v>2.218713184153526e-14</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9394332195756038</v>
+        <v>0.959071179442876</v>
       </c>
       <c r="G22" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>2.218713184153526e-14</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9394332195756038</v>
+        <v>0.959071179442876</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1291,25 +1291,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.06694209999441267</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1478294255089193</v>
+        <v>2.21829751201114e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.0003143902577224144</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1478294255089194</v>
+        <v>2.21829751201114e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0.260852872455403</v>
+        <v>0.9327435097477983</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1478294255089198</v>
+        <v>2.21829751201114e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0.260852872455403</v>
+        <v>0.9327435097477983</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>f__Propionibacteriaceae(reject)</t>
+          <t>f__Propionibacteriaceae</t>
         </is>
       </c>
     </row>
@@ -1329,25 +1329,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.06457543258260173</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1478294255089193</v>
+        <v>2.218070877077772e-14</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.000846345981338262</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1478294255089194</v>
+        <v>2.218070877077772e-14</v>
       </c>
       <c r="F24" t="n">
-        <v>0.260852872455403</v>
+        <v>0.9345782214359935</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1478294255089198</v>
+        <v>2.218070877077772e-14</v>
       </c>
       <c r="H24" t="n">
-        <v>0.260852872455403</v>
+        <v>0.9345782214359935</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>f__Propionibacteriaceae(reject)</t>
+          <t>f__Propionibacteriaceae</t>
         </is>
       </c>
     </row>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.3867947196590484</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1478294255089193</v>
+        <v>7.541535357089683e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.1504828835446648</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1478294255089194</v>
+        <v>7.541535357089689e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4627223967940244</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1478294255089198</v>
+        <v>7.541535357089687e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4627223967940244</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1405,25 +1405,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.4047287622053083</v>
       </c>
       <c r="C26" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>2.143366188512438e-12</v>
       </c>
       <c r="D26" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.1289795106576294</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4951555480197559</v>
+        <v>2.143366188512438e-12</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4662917271306322</v>
       </c>
       <c r="G26" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>2.143366188512438e-12</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4662917271306322</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1443,25 +1443,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.754305418534508e-12</v>
+        <v>0.09012550621544123</v>
       </c>
       <c r="C27" t="n">
-        <v>1.754305418534508e-12</v>
+        <v>8.404956617931967e-14</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5689858367030578</v>
+        <v>0.5500050759003089</v>
       </c>
       <c r="E27" t="n">
-        <v>1.754305418534515e-12</v>
+        <v>8.404956617931967e-14</v>
       </c>
       <c r="F27" t="n">
-        <v>0.431014163289925</v>
+        <v>0.3598694178839978</v>
       </c>
       <c r="G27" t="n">
-        <v>1.754305418534516e-12</v>
+        <v>8.404956617931969e-14</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5689858367030578</v>
+        <v>0.5500050759003089</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1481,25 +1481,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.4189117449218817</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1478294255089193</v>
+        <v>4.552783727904151e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.1263487629708679</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1478294255089194</v>
+        <v>4.552783727904151e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4547394921058847</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1478294255089198</v>
+        <v>4.552783727904156e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4547394921058847</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1519,25 +1519,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.4276774198283985</v>
       </c>
       <c r="C29" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>1.16370796180445e-12</v>
       </c>
       <c r="D29" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.1090427883856287</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4951555480197559</v>
+        <v>1.16370796180445e-12</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4632797917824817</v>
       </c>
       <c r="G29" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>1.163707961804452e-12</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4632797917824817</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1557,25 +1557,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.4647712675862991</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1666666666666667</v>
+        <v>2.603148219664724e-13</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.09837896894595095</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1666666666666666</v>
+        <v>2.603148219664726e-13</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.436849763466969</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1666666666666667</v>
+        <v>2.603148219664726e-13</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.4647712675862991</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.3604054718761581</v>
       </c>
       <c r="C31" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>6.566341242741305e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.1702373334778053</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4951555480197559</v>
+        <v>6.566341242741304e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4693571946440667</v>
       </c>
       <c r="G31" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>6.566341242741311e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4693571946440667</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1633,25 +1633,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>0.0347823639187106</v>
       </c>
       <c r="C32" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>2.218932245479546e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>0.002535937577219696</v>
       </c>
       <c r="E32" t="n">
-        <v>0.06056678042430738</v>
+        <v>2.218932245479546e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9394332195756038</v>
+        <v>0.9626816985040031</v>
       </c>
       <c r="G32" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>2.218932245479546e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9394332195756038</v>
+        <v>0.9626816985040031</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1671,25 +1671,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.05448401205280298</v>
       </c>
       <c r="C33" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>2.218484327659194e-14</v>
       </c>
       <c r="D33" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.00042163796389685</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4951555480197559</v>
+        <v>2.218484327659194e-14</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.9450943499832336</v>
       </c>
       <c r="G33" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>2.218484327659194e-14</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.9450943499832336</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>f__Propionibacteriaceae(reject)</t>
+          <t>f__Propionibacteriaceae</t>
         </is>
       </c>
     </row>
@@ -1709,25 +1709,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.4287846567525257</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1478294255089193</v>
+        <v>1.116934114145146e-12</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.1109075993405502</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1478294255089194</v>
+        <v>1.116934114145147e-12</v>
       </c>
       <c r="F34" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4603077439035733</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1478294255089198</v>
+        <v>1.116934114145147e-12</v>
       </c>
       <c r="H34" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4603077439035733</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.3812313351253047</v>
       </c>
       <c r="C35" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>1.402221493466439e-12</v>
       </c>
       <c r="D35" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.1473360749415589</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4951555480197559</v>
+        <v>1.402221493466439e-12</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4714325899289299</v>
       </c>
       <c r="G35" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>1.402221493466438e-12</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4714325899289299</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1785,25 +1785,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.06838602194071251</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1478294255089193</v>
+        <v>2.218152086923843e-14</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.000388328996370579</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1478294255089194</v>
+        <v>2.218152086923843e-14</v>
       </c>
       <c r="F36" t="n">
-        <v>0.260852872455403</v>
+        <v>0.9312256490628504</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1478294255089198</v>
+        <v>2.218152086923843e-14</v>
       </c>
       <c r="H36" t="n">
-        <v>0.260852872455403</v>
+        <v>0.9312256490628504</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>f__Propionibacteriaceae(reject)</t>
+          <t>f__Propionibacteriaceae</t>
         </is>
       </c>
     </row>
@@ -1823,25 +1823,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>0.0403479181521651</v>
       </c>
       <c r="C37" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>2.218781687760545e-14</v>
       </c>
       <c r="D37" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>0.0004042227149107043</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06056678042430738</v>
+        <v>2.218781687760545e-14</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9394332195756038</v>
+        <v>0.9592478591328577</v>
       </c>
       <c r="G37" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>2.218781687760545e-14</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9394332195756038</v>
+        <v>0.9592478591328577</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -1861,25 +1861,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.385526907666331</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1478294255089193</v>
+        <v>1.540037137259536e-12</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.1461125379934417</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1478294255089194</v>
+        <v>1.540037137259535e-12</v>
       </c>
       <c r="F38" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4683605543356071</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1478294255089198</v>
+        <v>1.540037137259534e-12</v>
       </c>
       <c r="H38" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4683605543356071</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -1899,25 +1899,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.4254767918084366</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1478294255089193</v>
+        <v>1.185088938677385e-12</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.1106048658858769</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1478294255089194</v>
+        <v>1.185088938677384e-12</v>
       </c>
       <c r="F39" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4639183423021311</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1478294255089198</v>
+        <v>1.185088938677384e-12</v>
       </c>
       <c r="H39" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4639183423021311</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -1937,25 +1937,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.4335888831209899</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1478294255089193</v>
+        <v>1.305076639632451e-12</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.103376058344836</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1478294255089194</v>
+        <v>1.30507663963245e-12</v>
       </c>
       <c r="F40" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4630350585302588</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1478294255089198</v>
+        <v>1.305076639632449e-12</v>
       </c>
       <c r="H40" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4630350585302588</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -1975,25 +1975,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1269953788308527</v>
+        <v>0.2526422462325783</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1269953788308527</v>
+        <v>4.262196174421772e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3650231058457366</v>
+        <v>0.7473577537672511</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1269953788308526</v>
+        <v>4.262196174421771e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1269953788308526</v>
+        <v>4.262196174421771e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1269953788308526</v>
+        <v>4.262196174421771e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3650231058457366</v>
+        <v>0.7473577537672511</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2013,25 +2013,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.433003977647667</v>
       </c>
       <c r="C42" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>2.044454964550819e-12</v>
       </c>
       <c r="D42" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.1033003011210342</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4951555480197559</v>
+        <v>2.044454964550818e-12</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4636957212251654</v>
       </c>
       <c r="G42" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>2.044454964550821e-12</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4636957212251654</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2051,34 +2051,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.754305418534508e-12</v>
+        <v>0.2052626853534282</v>
       </c>
       <c r="C43" t="n">
-        <v>1.754305418534508e-12</v>
+        <v>2.259330991507479e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5689858367030578</v>
+        <v>0.350100142184345</v>
       </c>
       <c r="E43" t="n">
-        <v>1.754305418534515e-12</v>
+        <v>2.259330991507479e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0.431014163289925</v>
+        <v>0.4446371724615489</v>
       </c>
       <c r="G43" t="n">
-        <v>1.754305418534516e-12</v>
+        <v>2.259330991507479e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5689858367030578</v>
+        <v>0.4446371724615489</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>f__Corynebacteriaceae</t>
+          <t>f__Propionibacteriaceae</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>f__Corynebacteriaceae(reject)</t>
+          <t>f__Propionibacteriaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -2089,25 +2089,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.2587603434923524</v>
       </c>
       <c r="C44" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>8.531674280652473e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.01246807033904587</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4951555480197559</v>
+        <v>0.3564619679847797</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.3723096181836513</v>
       </c>
       <c r="G44" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>8.531674280652468e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.3723096181836513</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2127,25 +2127,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1269953788308527</v>
+        <v>0.4059268340221905</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1269953788308527</v>
+        <v>3.73748869736495e-13</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3650231058457366</v>
+        <v>0.5940731659763144</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1269953788308526</v>
+        <v>3.73748869736495e-13</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1269953788308526</v>
+        <v>3.73748869736495e-13</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1269953788308526</v>
+        <v>3.73748869736495e-13</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3650231058457366</v>
+        <v>0.5940731659763144</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2165,25 +2165,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.04827809833588622</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.21992678587089e-14</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0.9517219016640249</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2.21992678587089e-14</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2.21992678587089e-14</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2.21992678587089e-14</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0.9517219016640249</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2203,25 +2203,25 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1269953788308527</v>
+        <v>0.2657567085907704</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1269953788308527</v>
+        <v>5.506253459672729e-13</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3650231058457366</v>
+        <v>0.7342432914070272</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1269953788308526</v>
+        <v>5.50625345967273e-13</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1269953788308526</v>
+        <v>5.50625345967273e-13</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1269953788308526</v>
+        <v>5.506253459672722e-13</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3650231058457366</v>
+        <v>0.7342432914070272</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2241,34 +2241,34 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1491059921827817</v>
+        <v>0.4470852003596417</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1491059921827817</v>
+        <v>3.757155788424655e-13</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1491059921827817</v>
+        <v>0.109200776734314</v>
       </c>
       <c r="E48" t="n">
-        <v>0.254470039086092</v>
+        <v>3.757155788424653e-13</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1491059921827813</v>
+        <v>0.4437140229049173</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1491059921827813</v>
+        <v>3.757155788424654e-13</v>
       </c>
       <c r="H48" t="n">
-        <v>0.254470039086092</v>
+        <v>0.4470852003596417</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>f__Micrococcaceae</t>
+          <t>f__Actinomycetaceae</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>f__Micrococcaceae(reject)</t>
+          <t>f__Actinomycetaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -2279,25 +2279,25 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.4537818497442482</v>
       </c>
       <c r="C49" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>7.031549950490763e-13</v>
       </c>
       <c r="D49" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.09240160943873724</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4951555480197559</v>
+        <v>7.031549950490765e-13</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4538165408149051</v>
       </c>
       <c r="G49" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>7.031549950490762e-13</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4538165408149051</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.3791083508935118</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1478294255089193</v>
+        <v>5.689007210848873e-13</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.1576716696619955</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1478294255089194</v>
+        <v>5.689007210848873e-13</v>
       </c>
       <c r="F50" t="n">
-        <v>0.260852872455403</v>
+        <v>0.463219979442786</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1478294255089198</v>
+        <v>5.689007210848873e-13</v>
       </c>
       <c r="H50" t="n">
-        <v>0.260852872455403</v>
+        <v>0.463219979442786</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2355,25 +2355,25 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.05877143463741878</v>
       </c>
       <c r="C51" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>2.218472691418731e-14</v>
       </c>
       <c r="D51" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.0002977232703612544</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4951555480197559</v>
+        <v>2.218472691418731e-14</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.9409308420921534</v>
       </c>
       <c r="G51" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>2.218472691418731e-14</v>
       </c>
       <c r="H51" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.9409308420921534</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>f__Propionibacteriaceae(reject)</t>
+          <t>f__Propionibacteriaceae</t>
         </is>
       </c>
     </row>
@@ -2393,25 +2393,25 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.3676349222870733</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1478294255089193</v>
+        <v>3.249584945989519e-13</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.1795096175216761</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1478294255089194</v>
+        <v>3.249584945989519e-13</v>
       </c>
       <c r="F52" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4528554601902756</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1478294255089198</v>
+        <v>3.249584945989517e-13</v>
       </c>
       <c r="H52" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4528554601902756</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2431,25 +2431,25 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>0.0351425354359992</v>
       </c>
       <c r="C53" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>2.218879175080474e-14</v>
       </c>
       <c r="D53" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>0.0006536382093917737</v>
       </c>
       <c r="E53" t="n">
-        <v>0.06056678042430738</v>
+        <v>2.218879175080474e-14</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9394332195756038</v>
+        <v>0.9642038263545424</v>
       </c>
       <c r="G53" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>2.218879175080474e-14</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9394332195756038</v>
+        <v>0.9642038263545424</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2469,25 +2469,25 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.4040047448587415</v>
       </c>
       <c r="C54" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>9.975633590814311e-13</v>
       </c>
       <c r="D54" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.1297873050043037</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4951555480197559</v>
+        <v>9.975633590814301e-13</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4662079501339623</v>
       </c>
       <c r="G54" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>9.975633590814311e-13</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4662079501339623</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -2507,34 +2507,34 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.4970685680889863</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1478294255089193</v>
+        <v>4.876930099122523e-13</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.05698935722285986</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1478294255089194</v>
+        <v>4.876930099122524e-13</v>
       </c>
       <c r="F55" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4459420746866907</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1478294255089198</v>
+        <v>4.876930099122525e-13</v>
       </c>
       <c r="H55" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4970685680889863</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>f__Propionibacteriaceae</t>
+          <t>f__Actinomycetaceae</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>f__Propionibacteriaceae(reject)</t>
+          <t>f__Actinomycetaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -2545,25 +2545,25 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.2399771770685192</v>
       </c>
       <c r="C56" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>8.392451961897326e-14</v>
       </c>
       <c r="D56" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.04036873189187009</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4951555480197559</v>
+        <v>0.3519778932733871</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.3676761977660559</v>
       </c>
       <c r="G56" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>8.392451961897337e-14</v>
       </c>
       <c r="H56" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.3676761977660559</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2583,25 +2583,25 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>0.02568015689571248</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>2.219343595090575e-14</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>0.002614805586815441</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>2.219343595090575e-14</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0.9717050375174054</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>2.219343595090575e-14</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0.9717050375174054</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -2621,25 +2621,25 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>0.3804398165033063</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1.361201037577951e-12</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>0.1505553712914487</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>1.361201037577952e-12</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0.4690048122011614</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1.361201037577951e-12</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0.4690048122011614</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>f__Propionibacteriaceae</t>
+          <t>f__Propionibacteriaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -2659,25 +2659,25 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>0.03313371855036677</v>
       </c>
       <c r="C59" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>2.218906529003906e-14</v>
       </c>
       <c r="D59" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>0.0006293963007156094</v>
       </c>
       <c r="E59" t="n">
-        <v>0.06056678042430738</v>
+        <v>2.218906529003906e-14</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9394332195756038</v>
+        <v>0.9662368851488511</v>
       </c>
       <c r="G59" t="n">
-        <v>2.219947388450725e-14</v>
+        <v>2.218906529003906e-14</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9394332195756038</v>
+        <v>0.9662368851488511</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -2697,25 +2697,25 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.391118562174183</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1478294255089193</v>
+        <v>8.700262319012831e-13</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.1458090134021853</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1478294255089194</v>
+        <v>8.700262319012795e-13</v>
       </c>
       <c r="F60" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4630724244210216</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1478294255089198</v>
+        <v>8.700262319012791e-13</v>
       </c>
       <c r="H60" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4630724244210216</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -2735,25 +2735,25 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.4268538096664252</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1478294255089193</v>
+        <v>8.574603001381604e-13</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.1112077224418399</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1478294255089194</v>
+        <v>8.574603001381604e-13</v>
       </c>
       <c r="F61" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4619384678891625</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1478294255089198</v>
+        <v>8.574603001381604e-13</v>
       </c>
       <c r="H61" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4619384678891625</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -2773,25 +2773,25 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.4268538096664252</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1478294255089193</v>
+        <v>8.574603001381604e-13</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.1112077224418399</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1478294255089194</v>
+        <v>8.574603001381604e-13</v>
       </c>
       <c r="F62" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4619384678891625</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1478294255089198</v>
+        <v>8.574603001381604e-13</v>
       </c>
       <c r="H62" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4619384678891625</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -2811,25 +2811,25 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.4111402098149924</v>
       </c>
       <c r="C63" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>9.363975679112685e-13</v>
       </c>
       <c r="D63" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.1252025483326842</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4951555480197559</v>
+        <v>9.363975679112679e-13</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4636572418495141</v>
       </c>
       <c r="G63" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>9.363975679112679e-13</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4636572418495141</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -2849,25 +2849,25 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.4268538096664252</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1478294255089193</v>
+        <v>8.574603001381604e-13</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.1112077224418399</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1478294255089194</v>
+        <v>8.574603001381604e-13</v>
       </c>
       <c r="F64" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4619384678891625</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1478294255089198</v>
+        <v>8.574603001381604e-13</v>
       </c>
       <c r="H64" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4619384678891625</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -2887,25 +2887,25 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.4111402098149924</v>
       </c>
       <c r="C65" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>9.363975679112685e-13</v>
       </c>
       <c r="D65" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.1252025483326842</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4951555480197559</v>
+        <v>9.363975679112679e-13</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4636572418495141</v>
       </c>
       <c r="G65" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>9.363975679112679e-13</v>
       </c>
       <c r="H65" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4636572418495141</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -2925,25 +2925,25 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.01982456868544741</v>
       </c>
       <c r="C66" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>2.221565900508929e-14</v>
       </c>
       <c r="D66" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.01971487403085699</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4951555480197559</v>
+        <v>2.221565900508929e-14</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.9604605572836289</v>
       </c>
       <c r="G66" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>2.221565900508929e-14</v>
       </c>
       <c r="H66" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.9604605572836289</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>f__Propionibacteriaceae(reject)</t>
+          <t>f__Propionibacteriaceae</t>
         </is>
       </c>
     </row>
@@ -2963,25 +2963,25 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.06553674562400844</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1478294255089193</v>
+        <v>2.218511263486052e-14</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.0002178434060845302</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1478294255089194</v>
+        <v>2.218511263486052e-14</v>
       </c>
       <c r="F67" t="n">
-        <v>0.260852872455403</v>
+        <v>0.9342454109698406</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1478294255089198</v>
+        <v>2.218511263486052e-14</v>
       </c>
       <c r="H67" t="n">
-        <v>0.260852872455403</v>
+        <v>0.9342454109698406</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>f__Propionibacteriaceae(reject)</t>
+          <t>f__Propionibacteriaceae</t>
         </is>
       </c>
     </row>
@@ -3001,25 +3001,25 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.3964677248237337</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1478294255089193</v>
+        <v>1.988057769673206e-12</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.1350108038827914</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1478294255089194</v>
+        <v>1.988057769673208e-12</v>
       </c>
       <c r="F68" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4685214712875108</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1478294255089198</v>
+        <v>1.988057769673208e-12</v>
       </c>
       <c r="H68" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4685214712875108</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -3039,25 +3039,25 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.3887780535071001</v>
       </c>
       <c r="C69" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>1.560531366138292e-12</v>
       </c>
       <c r="D69" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.1406221366778746</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4951555480197559</v>
+        <v>1.560531366138293e-12</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4705998098103437</v>
       </c>
       <c r="G69" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>1.560531366138292e-12</v>
       </c>
       <c r="H69" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4705998098103437</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3077,25 +3077,25 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.415198365557481</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1478294255089193</v>
+        <v>2.080198190137859e-12</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.1162152142799805</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1478294255089194</v>
+        <v>2.080198190137858e-12</v>
       </c>
       <c r="F70" t="n">
-        <v>0.260852872455403</v>
+        <v>0.468586420156298</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1478294255089198</v>
+        <v>2.080198190137861e-12</v>
       </c>
       <c r="H70" t="n">
-        <v>0.260852872455403</v>
+        <v>0.468586420156298</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -3115,25 +3115,25 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.3818984621828055</v>
       </c>
       <c r="C71" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>6.323470787333107e-13</v>
       </c>
       <c r="D71" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.1584107339004877</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4951555480197559</v>
+        <v>6.323470787333108e-13</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4596908039148097</v>
       </c>
       <c r="G71" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>6.323470787333106e-13</v>
       </c>
       <c r="H71" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4596908039148097</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -3153,25 +3153,25 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.4253609930073782</v>
       </c>
       <c r="C72" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>1.550102050125688e-12</v>
       </c>
       <c r="D72" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.1128775074700184</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4951555480197559</v>
+        <v>1.550102050125688e-12</v>
       </c>
       <c r="F72" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4617614995179534</v>
       </c>
       <c r="G72" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>1.550102050125688e-12</v>
       </c>
       <c r="H72" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.4617614995179534</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -3191,25 +3191,25 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.4169690846289799</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1478294255089193</v>
+        <v>1.654386913339614e-12</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1478294255089193</v>
+        <v>0.1196370980930628</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1478294255089194</v>
+        <v>1.654386913339613e-12</v>
       </c>
       <c r="F73" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4633938172729942</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1478294255089198</v>
+        <v>1.654386913339612e-12</v>
       </c>
       <c r="H73" t="n">
-        <v>0.260852872455403</v>
+        <v>0.4633938172729942</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -3229,25 +3229,25 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.06412127218604383</v>
       </c>
       <c r="C74" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>2.21837123293964e-14</v>
       </c>
       <c r="D74" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>0.0002794510588238811</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4951555480197559</v>
+        <v>2.21837123293964e-14</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.9355992767550658</v>
       </c>
       <c r="G74" t="n">
-        <v>1.000084548768638e-12</v>
+        <v>2.21837123293964e-14</v>
       </c>
       <c r="H74" t="n">
-        <v>0.5048444519762437</v>
+        <v>0.9355992767550658</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>f__Propionibacteriaceae(reject)</t>
+          <t>f__Propionibacteriaceae</t>
         </is>
       </c>
     </row>
